--- a/data/all/ALL_IS_TOTAL.xlsx
+++ b/data/all/ALL_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>ALL COMPANIES</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>ALL COMPANIES</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1418 +841,1603 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2423618768.23784</v>
+        <v>1591220054.70031</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3388496218.17949</v>
+        <v>1886492003.65788</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2441073279.818901</v>
+        <v>2421525925.41486</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2752591173.1118</v>
+        <v>2763099561.97012</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3086939625.25591</v>
+        <v>3110071383.0385</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3565698440.476851</v>
+        <v>3614864736.01512</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3769014214.8958</v>
+        <v>4061702188.83133</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4378464549.49064</v>
+        <v>4474327115.677191</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5669104328.51319</v>
+        <v>5667906090.513189</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7102789035.674191</v>
+        <v>7110685508.011101</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8164084270.35011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8252848107.25799</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9762876747.542</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2146338642.3885</v>
+        <v>1313937434.19156</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3076416088.204441</v>
+        <v>1572611809.68574</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2021354301.92469</v>
+        <v>2001284648.54861</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2272227088.85009</v>
+        <v>2277217609.67859</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2560807850.26864</v>
+        <v>2580607500.70331</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2949936864.22877</v>
+        <v>2989755158.11227</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3145116071.56982</v>
+        <v>3373847013.31825</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3665840857.53466</v>
+        <v>3744369386.53609</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4682079660.070721</v>
+        <v>4680881422.07072</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5694065929.62339</v>
+        <v>5703207586.631889</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6476227843.75008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6555576840.96514</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7894984931.361</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>241509268.26535</v>
+        <v>241510133.381</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>271637289.0888</v>
+        <v>273414460.9976</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>370637261.38535</v>
+        <v>371089334.31623</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>424539124.36561</v>
+        <v>429990379.15698</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>463296183.65678</v>
+        <v>466129351.11157</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>539999457.9221101</v>
+        <v>548144144.3544701</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>542407220.96771</v>
+        <v>602054491.0675501</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>632391061.11115</v>
+        <v>648233104.0494499</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>891034951.75492</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1285717728.25498</v>
+        <v>1284362928.19569</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1546181508.7897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1554575874.11981</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1710444142.328</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>35770857.58399001</v>
+        <v>35772487.12775</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40442840.88625</v>
+        <v>40465732.97454</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>49081716.50886</v>
+        <v>49151942.55002</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>55824959.8961</v>
+        <v>55891573.13455001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>62835591.33049</v>
+        <v>63334531.22362</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>75762118.32596999</v>
+        <v>76965433.54837999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>81490922.35827</v>
+        <v>85800684.44553</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>80232630.84483001</v>
+        <v>81724625.09164999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>95989716.68755001</v>
+        <v>95989716.68754999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>123005377.79582</v>
+        <v>123114993.18352</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>141674917.81033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>142695392.17304</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>157447673.853</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>904936127.7088401</v>
+        <v>72530369.19901001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1598025026.84148</v>
+        <v>79359678.21842</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>115868368.96028</v>
+        <v>92985487.27667001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>108946626.00226</v>
+        <v>106628501.65834</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>124544891.9681</v>
+        <v>125452980.63426</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>154625110.26159</v>
+        <v>149398555.25921</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>151857746.70962</v>
+        <v>175602914.67573</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>211381195.59144</v>
+        <v>217549404.38858</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>260716726.51281</v>
+        <v>259518488.51281</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>317440979.98417</v>
+        <v>308854609.67766</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>385446210.6463001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>385412582.75209</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>446107189.591</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>21686745.67442</v>
+        <v>21686749.83173</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17563996.17177</v>
+        <v>17586797.94664</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21286967.41411</v>
+        <v>21308450.98687</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>25328511.16548</v>
+        <v>25409546.10027</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>27936988.4529</v>
+        <v>28252799.28073</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>47610599.55575</v>
+        <v>39231762.35414</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>40858251.76380999</v>
+        <v>42837080.70234</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>65772198.14824001</v>
+        <v>65779739.70137001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>81556168.2501</v>
+        <v>80357930.2501</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>92505859.92241</v>
+        <v>83896548.96474001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>111862748.316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>111291647.62714</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>127475319.962</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>868615286.3425599</v>
+        <v>36209523.67542001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1561880236.25385</v>
+        <v>42983716.59108</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>72178945.82167</v>
+        <v>48920466.02009001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>56420220.01624001</v>
+        <v>53423264.68462001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>60802361.10864</v>
+        <v>61164141.21007</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>66042158.2814</v>
+        <v>67708982.07551</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>73946316.03509</v>
+        <v>79279775.49165</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>84220771.39572001</v>
+        <v>87947920.82429999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>108007752.65608</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>131676197.71702</v>
+        <v>131687492.00976</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>163317597.42986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>163477068.78031</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>194826008.751</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>14634095.69186</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>18580794.41586</v>
+        <v>18789163.6807</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>22402455.7245</v>
+        <v>22756570.26971</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>27197894.82054</v>
+        <v>27795690.87345</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>35805542.40656</v>
+        <v>36036040.14345999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>40972352.42444</v>
+        <v>42457810.82956</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37053178.91072</v>
+        <v>53486058.48174001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>61388226.04747999</v>
+        <v>63821743.86291</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>71152805.60663</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>93258922.34474</v>
+        <v>93270568.70316</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>110265864.90044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>110643866.34464</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>123805860.878</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1518682640.529</v>
+        <v>1518689685.5013</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1790471191.33801</v>
+        <v>1807132325.43946</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2325204910.85862</v>
+        <v>2328540438.13819</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2643644547.10954</v>
+        <v>2656471060.31178</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2962394733.28781</v>
+        <v>2984618402.40424</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3411073330.21526</v>
+        <v>3465466180.755909</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3617156468.18618</v>
+        <v>3886099274.155601</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4167083353.8992</v>
+        <v>4256777711.28861</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>5408387602.000381</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6785348055.69002</v>
+        <v>6801830898.33344</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7778638059.70381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7867435524.5059</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9316769557.951</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1282655572.57375</v>
+        <v>1282660056.34169</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1526746164.40714</v>
+        <v>1542273233.67934</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1996157977.28628</v>
+        <v>1999093132.73351</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2290944208.72742</v>
+        <v>2302591844.236639</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2549902966.36596</v>
+        <v>2569296563.66174</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2954289390.90493</v>
+        <v>2999255571.56716</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3095799312.82329</v>
+        <v>3324632949.86973</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3556006799.622631</v>
+        <v>3629079818.87484</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4630485920.35588</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5771974793.460151</v>
+        <v>5787316588.23669</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6634549905.493629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6714984722.45987</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7936198496.528</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>382622513.6713201</v>
+        <v>382623687.78347</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>465589794.13</v>
+        <v>465826358.21352</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>608136030.96726</v>
+        <v>610195168.7077099</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>691821976.5440701</v>
+        <v>697260938.40137</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>752194237.57802</v>
+        <v>759938929.19784</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>863017861.42366</v>
+        <v>886412811.00772</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>841862577.62395</v>
+        <v>962038012.2437701</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1032845720.6228</v>
+        <v>1057635151.40482</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1387170758.45137</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1780250796.48038</v>
+        <v>1781542852.88185</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2070988522.54852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2082458871.54104</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2420029199.084</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>677703735.8181001</v>
+        <v>677706547.41693</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>802135825.4067</v>
+        <v>817153838.02978</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1061658352.93075</v>
+        <v>1062305724.48439</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1219931232.75786</v>
+        <v>1222189537.4424</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1340281007.08313</v>
+        <v>1348448671.80258</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1550453646.35962</v>
+        <v>1564079642.05258</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1707658357.86883</v>
+        <v>1777710477.18249</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1891933655.66967</v>
+        <v>1927904032.7421</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2450879056.32985</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2992768284.58795</v>
+        <v>3002836289.61661</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3394079931.4743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3449120846.283</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4305281441.92</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>207350716.86308</v>
+        <v>207351214.92004</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>243720881.40423</v>
+        <v>243992886.10332</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>305625997.22429</v>
+        <v>305775565.02332</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>353789704.28993</v>
+        <v>357668973.22414</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>430434125.01294</v>
+        <v>433560812.47615</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>503523891.58659</v>
+        <v>511053715.1893899</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>513557711.8219799</v>
+        <v>549201978.85344</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>609743824.25012</v>
+        <v>621331434.7838399</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>762248040.1435901</v>
+        <v>762248040.14359</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>958900917.17998</v>
+        <v>962852534.04144</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1121439497.05272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1135195198.32795</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1155732826.53</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14978606.22125</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>15299663.46621</v>
+        <v>15300151.33272</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>20737596.16398</v>
+        <v>20816674.51809</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>25401295.13556</v>
+        <v>25472395.16873</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>26993596.69187</v>
+        <v>27348150.18517</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>37293991.53506</v>
+        <v>37709403.31746999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>32720665.50853</v>
+        <v>35682481.59003</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>21483599.08004</v>
+        <v>22209199.94408</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>30188065.43107</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>40054795.21184</v>
+        <v>40084911.69679</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>48041954.41808999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>48209806.30788001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>55155028.994</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>236027067.95525</v>
+        <v>236029629.15961</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>263725026.93087</v>
+        <v>264859091.76012</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>329046933.57234</v>
+        <v>329447305.4046801</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>352700338.38212</v>
+        <v>353879216.07514</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>412491766.92185</v>
+        <v>415321838.7425</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>456783939.31033</v>
+        <v>466210609.18875</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>521357155.3628899</v>
+        <v>561466324.28587</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>611076554.2765701</v>
+        <v>627697892.41377</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>777901681.6445</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1013373262.22987</v>
+        <v>1014514310.09675</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1144088154.21018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1152450802.04603</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1380571061.423</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>163437198.52123</v>
+        <v>163440392.71698</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>185531362.70674</v>
+        <v>186148767.2056</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>224438953.2786</v>
+        <v>224657609.26095</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>252873397.38093</v>
+        <v>253730072.81593</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>284798744.4729699</v>
+        <v>286829708.51656</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>324566745.4828101</v>
+        <v>329987377.83403</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>352816220.4456999</v>
+        <v>376624376.13312</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>411628832.42848</v>
+        <v>424115215.97877</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>491449099.5144799</v>
+        <v>491449099.51448</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>596812333.5716</v>
+        <v>598427872.1403799</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>701090206.43827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>707722462.1236299</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>772409548.191</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2248741.76704</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2353487.8349</v>
+        <v>2353533.8539</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3303546.500519999</v>
+        <v>3304832.98008</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3578503.58912</v>
+        <v>3590199.23247</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4028980.20984</v>
+        <v>4035547.4067</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4797692.54833</v>
+        <v>4841316.74801</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5010813.314060001</v>
+        <v>5560641.23935</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5878236.298320001</v>
+        <v>6040102.654429999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>7817269.676659999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>10542215.64831</v>
+        <v>10549510.95576</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15886255.98227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15879861.29118</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17566405.546</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>71798411.97492</v>
+        <v>71798453.49955</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>83189187.30523001</v>
+        <v>83656487.47853</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>100931291.67514</v>
+        <v>101061058.65466</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>114831817.47896</v>
+        <v>115277939.76249</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>129380011.01223</v>
+        <v>130303110.53561</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>147630868.66141</v>
+        <v>150142178.70119</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>159108131.69063</v>
+        <v>170585435.21604</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>185858586.556</v>
+        <v>192064115.35734</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>227912570.79366</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>279785405.10038</v>
+        <v>280045975.6130601</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>327390560.89763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>329270529.47785</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>361932980.092</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>89390044.77927001</v>
+        <v>89393197.45038998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>99988687.56660999</v>
+        <v>100138745.87317</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>120204115.10294</v>
+        <v>120291717.62621</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>134463076.31285</v>
+        <v>134861933.82097</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>151389753.2509</v>
+        <v>152491050.57425</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>172138184.27307</v>
+        <v>175003882.38483</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>188697275.44101</v>
+        <v>200478299.67773</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>219892009.57416</v>
+        <v>226010997.967</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>255719259.04416</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>306484712.82291</v>
+        <v>307832385.57156</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>357813389.55837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>362572071.3546</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>392910162.553</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>72589869.43402</v>
+        <v>72589236.44263001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>78193664.22413</v>
+        <v>78710324.55452001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>104607980.29374</v>
+        <v>104789696.14373</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>99826941.00119001</v>
+        <v>100149143.25921</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>127693022.44888</v>
+        <v>128492130.22594</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>132217193.82752</v>
+        <v>136223231.35472</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>168540934.91719</v>
+        <v>184841948.15275</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>199447721.84809</v>
+        <v>203582676.435</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>286452582.13002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>416560928.65827</v>
+        <v>416086437.95637</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>442997947.77191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>444728339.9224</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>608161513.232</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>94924992.96351001</v>
+        <v>94924989.89749001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>100700451.70469</v>
+        <v>102537779.18776</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>128920771.25414</v>
+        <v>129219355.27245</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>122150567.92265</v>
+        <v>122814487.2601</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>170354998.74335</v>
+        <v>172079950.63663</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>205010961.87585</v>
+        <v>211405244.1634</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>303607943.98497</v>
+        <v>339191301.58697</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>333269473.49761</v>
+        <v>376483127.65038</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>625896470.19557</v>
+        <v>625896470.1955701</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1192549720.95009</v>
+        <v>1196711475.6116</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>769001109.3636699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>771242702.76028</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1128025960.596</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4580796.509419999</v>
+        <v>4580796.50942</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5195829.946409999</v>
+        <v>5195831.194719999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6152763.122479999</v>
+        <v>6158261.712009999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7382530.35525</v>
+        <v>7402128.0126</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>9130372.245889999</v>
+        <v>9176048.715130001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9922329.578189999</v>
+        <v>9996172.659130001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>9903647.498919999</v>
+        <v>11455727.65101</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>11559339.12706</v>
+        <v>12150385.9203</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>16054466.73866</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>21619581.93053</v>
+        <v>21791354.02459</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>28025561.05296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>28600497.15757</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>22455163.2</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>7834474.900540001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>6228128.221899999</v>
+        <v>6240913.75383</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7720701.855710001</v>
+        <v>7722036.43759</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>10752684.07201</v>
+        <v>10752789.12601</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>10564376.52157</v>
+        <v>10850121.94683</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>11539341.89883</v>
+        <v>12294458.19904</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>13069592.62537</v>
+        <v>16056950.19027</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>16389568.64675</v>
+        <v>16560718.40793</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>22338940.12518</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>44006625.53803999</v>
+        <v>44053133.92847</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>52920580.59408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>52956774.08747</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>37916076.562</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9214683.48432</v>
+        <v>9214688.376029998</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8924272.4243</v>
+        <v>8963868.072889999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>11396465.75014</v>
+        <v>11402552.79114</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>13707678.14451</v>
+        <v>13794707.2526</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13813700.74804</v>
+        <v>13920511.20179</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17887743.82198</v>
+        <v>18226670.19411</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20259268.96341</v>
+        <v>22766500.56758</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>24943294.61683</v>
+        <v>25592091.00987</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>35107453.59559</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>57305879.36533</v>
+        <v>57392419.83747999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>68358259.2881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>68717586.39275999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>61332770.772</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>993968.64966</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>930323.8382999999</v>
+        <v>931226.32148</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1190390.20988</v>
+        <v>1190719.87923</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>986631.04246</v>
+        <v>988295.86821</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1112331.02779</v>
+        <v>1115223.66946</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1163676.87687</v>
+        <v>1173764.22277</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1379164.75775</v>
+        <v>1419601.74774</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1534186.399</v>
+        <v>1584280.80902</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>1758920.93423</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2609300.88047</v>
+        <v>2618329.66918</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2925205.110249999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2940881.05479</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3192449.271</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3142772.26156</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3763799.54039</v>
+        <v>3768669.37953</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4794472.203020001</v>
+        <v>4795281.49313</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3233554.452</v>
+        <v>3236816.0967</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4484189.800729999</v>
+        <v>4492287.37263</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3566188.03963</v>
+        <v>3595292.06283</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4808110.97575</v>
+        <v>4981354.810020001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5540967.67618</v>
+        <v>5725217.33779</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>5187019.7932</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7168767.26018</v>
+        <v>7211625.20983</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8094259.33653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8114800.464509999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8412825.706</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1334653.43635</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6200380.065479999</v>
+        <v>6200384.323940001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2896824.21143</v>
+        <v>2896919.49833</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2962620.96004</v>
+        <v>2965593.25175</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3943122.94846</v>
+        <v>4002213.35381</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4384870.91223</v>
+        <v>4421430.51749</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8410807.886879999</v>
+        <v>8718523.114729999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3592530.30009</v>
+        <v>3647262.58989</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7258981.72095</v>
+        <v>7258981.720950001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>10665659.89462</v>
+        <v>10672205.26815</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11608357.57176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11608227.08436</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17650872.839</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>51174729.05839</v>
+        <v>51174729.52685001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>50821220.66369</v>
+        <v>51429571.58743999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>71814037.69883999</v>
+        <v>72089634.32354999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>57278343.17026</v>
+        <v>57756309.46430001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>96620699.35086001</v>
+        <v>97495219.71516</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>122697986.61058</v>
+        <v>127173933.67011</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>206263738.0829</v>
+        <v>231639448.71229</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>223500179.9938</v>
+        <v>263847110.55195</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>483150323.67527</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>960432506.2194899</v>
+        <v>964044238.5369201</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>505178385.66845</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>507072423.04992</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>877459606.3380001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>614967.1008100001</v>
+        <v>614967.10081</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>462480.12612</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>536409.19551</v>
+        <v>536584.03648</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>637012.8213899999</v>
+        <v>641014.6321299999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1172592.08261</v>
+        <v>1174980.48321</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1805557.8177</v>
+        <v>1836579.0473</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2069697.91928</v>
+        <v>2155234.22546</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2557863.68178</v>
+        <v>2696109.97687</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2784776.01723</v>
+        <v>2784776.017229999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>4787643.702640001</v>
+        <v>4787672.53367</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6357109.140020001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6358577.7974</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9606115.627</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>250531.57501</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>529708.36177</v>
+        <v>529854.24225</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>496824.9819600001</v>
+        <v>496901.69086</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>220020.93196</v>
+        <v>220026.24391</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>200342.45356</v>
+        <v>201262.28039</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>219289.15887</v>
+        <v>222826.96125</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>176019.03946</v>
+        <v>177019.40758</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>232040.93393</v>
+        <v>233824.3729</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>500812.24928</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>982183.47196</v>
+        <v>986908.77627</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>431355.4769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>454777.23227</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>948085.458</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15783415.98745</v>
+        <v>15783407.56126</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>17644308.51633</v>
+        <v>18814980.18556</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>21921882.02517</v>
+        <v>21930463.41013</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>24989491.97277</v>
+        <v>25056807.31189</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29313271.56384</v>
+        <v>29652081.89822</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>31823977.16097</v>
+        <v>32464116.62937</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>37267896.23525</v>
+        <v>39820941.16029</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>43419502.12219001</v>
+        <v>44446126.67386</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>51754775.34598</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>82971572.68683</v>
+        <v>83153587.82703999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>85102036.12462001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>84418158.43923001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>89051994.823</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>63569357.34784999</v>
+        <v>63569359.53658</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>59870911.91384</v>
+        <v>61759563.20315</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>97450904.09694</v>
+        <v>97881433.67579001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>67377470.00545001</v>
+        <v>67748572.73072</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>142942322.13588</v>
+        <v>144330910.60107</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>147462149.60926</v>
+        <v>151657051.97952</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>257806933.04985</v>
+        <v>284294408.73338</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>287003886.80201</v>
+        <v>328633513.30212</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>546011539.2656499</v>
+        <v>546011539.26565</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1095667883.95161</v>
+        <v>1100791314.82467</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>601467359.98948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>604349813.04085</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1040790952.018</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>969267.9504199999</v>
+        <v>969267.95042</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1117124.64129</v>
+        <v>1118918.6705</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1299566.51834</v>
+        <v>1299678.19566</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1471174.64714</v>
+        <v>1471602.707</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1588062.36496</v>
+        <v>1593430.81495</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1810346.51102</v>
+        <v>1829201.40623</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2072711.28463</v>
+        <v>2175485.41624</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2103448.65579</v>
+        <v>2352650.3366</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>3075286.17679</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3994336.10949</v>
+        <v>3996283.037570001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5068301.55659</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5073249.33866</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5314728.532</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5715159.77165</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5244073.469769999</v>
+        <v>5255750.96317</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5140297.165369999</v>
+        <v>5144017.280049999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6289840.60371</v>
+        <v>6310628.912529999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7608662.26834</v>
+        <v>7745466.496900001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7472513.92667</v>
+        <v>7660561.800660001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9865850.32143</v>
+        <v>10778855.87224</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11222737.3171</v>
+        <v>11833769.19783</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>13216479.20814</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18893976.82815</v>
+        <v>18913560.86854</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19736253.9703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>19833943.97827</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20482106.892</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>497593.3612500001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>587849.2345500001</v>
+        <v>587849.2345499999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>918455.53835</v>
+        <v>918455.66072</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1093059.43587</v>
+        <v>1118775.8396</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1094407.76685</v>
+        <v>1098459.55548</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1804796.04592</v>
+        <v>1825549.44102</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1226838.82737</v>
+        <v>1310635.86853</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1225801.0255</v>
+        <v>1227239.79764</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1752493.76811</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4848223.49034</v>
+        <v>4848277.7825</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>3969980.02316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3956978.74111</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5241595.366</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>46750157.09727</v>
+        <v>46750157.13275</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>43855059.77810001</v>
+        <v>44518051.37457</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>76199485.09023</v>
+        <v>76614199.38950999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>44668356.00898</v>
+        <v>44969375.67989</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>112238830.09831</v>
+        <v>113368756.21673</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>117126562.54562</v>
+        <v>120817624.8154</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>220029412.59926</v>
+        <v>244270468.15462</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>246142798.40355</v>
+        <v>286368510.8944299</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>497127686.4912299</v>
+        <v>497127686.49123</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1001121618.93671</v>
+        <v>1006178800.78797</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>520791580.3315601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>523434720.7435101</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>940528738.4170001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>409868.26396</v>
@@ -2360,37 +2446,42 @@
         <v>411558.80695</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>557432.62174</v>
+        <v>557466.09749</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>583788.2296</v>
+        <v>589762.36754</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1417199.49688</v>
+        <v>1421941.4125</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1941024.23873</v>
+        <v>1985728.88527</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2220834.48714</v>
+        <v>2294150.91867</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2719009.60279</v>
+        <v>2859828.99598</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>3032993.44089</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>5466369.153429999</v>
+        <v>5466718.0622</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>5638220.21808</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>5641013.94342</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>12161683.484</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>153864.16574</v>
@@ -2399,619 +2490,697 @@
         <v>505381.77199</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>569396.38458</v>
+        <v>569399.33323</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>160865.33038</v>
+        <v>160865.33046</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>181389.54079</v>
+        <v>186501.31277</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>142739.83842</v>
+        <v>145203.03599</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>435222.22517</v>
+        <v>436589.68598</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>164621.1705</v>
+        <v>164649.12496</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>259269.43578</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>907753.75951</v>
+        <v>911477.08402</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>398514.8524500001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>416601.04583</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>879258.1459999999</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9073446.73756</v>
+        <v>9073448.890810002</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>8149864.21119</v>
+        <v>9362052.381419998</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>12766270.77833</v>
+        <v>12778217.71913</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13110385.74977</v>
+        <v>13127561.8937</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18813770.59975</v>
+        <v>18916354.79174</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17164166.50288</v>
+        <v>17393182.59495</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>21956063.30485</v>
+        <v>23028222.8171</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23425470.62678</v>
+        <v>23826864.95468</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>27547330.74471</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>60435605.67398</v>
+        <v>60476197.20187</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>45864509.03734</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>45993305.25005</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>56182841.181</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>36712355.66676001</v>
+        <v>36712382.67239</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>32521818.74723</v>
+        <v>32787877.39833</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>60464574.17797</v>
+        <v>60498790.77492</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>47796223.18471</v>
+        <v>48090916.79060001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>77106739.91164</v>
+        <v>78294692.60673001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>79032850.53140999</v>
+        <v>81432695.87797</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>115479458.87864</v>
+        <v>129618487.26815</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>144853497.42691</v>
+        <v>147113220.25086</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>183792912.33485</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>376857482.5836999</v>
+        <v>377008978.3854299</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>317934710.05347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>318975366.92557</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>401202744.277</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>28048734.6775</v>
+        <v>28048761.68313</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>24574162.15036</v>
+        <v>24826877.00814</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>42356610.99553</v>
+        <v>42386084.35876</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>38473528.35913</v>
+        <v>38731757.34369</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>54219578.68825</v>
+        <v>55109094.11291</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>61322893.48102</v>
+        <v>62656681.36035</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>85072364.81603001</v>
+        <v>93593574.22564</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>106030483.82051</v>
+        <v>108167394.05472</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>139828383.29409</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>273089296.18414</v>
+        <v>273235395.30341</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>245797673.38137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>246803302.5845</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>287592858.25</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8663620.989260001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7947656.59687</v>
+        <v>7961000.39019</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>18107963.18244</v>
+        <v>18112706.41616</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9322694.825579999</v>
+        <v>9359159.446909999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>22887161.22339</v>
+        <v>23185598.49382</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17709957.05039</v>
+        <v>18776014.51762</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>30407094.06261</v>
+        <v>36024913.04251</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>38823013.60639999</v>
+        <v>38945826.19614</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>43964529.04076</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>103768186.39956</v>
+        <v>103773583.08202</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>72137036.67210001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>72172064.34107001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>113609886.027</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>67233149.38292001</v>
+        <v>67232484.13114999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>86501385.26774999</v>
+        <v>86700663.1408</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>75613273.27297001</v>
+        <v>75628826.96546999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>106803815.73368</v>
+        <v>107124140.99799</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>77998959.14471</v>
+        <v>77946477.65476999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>110733155.5627</v>
+        <v>114538727.66063</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>98862486.97366999</v>
+        <v>110120353.73819</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>100859811.11678</v>
+        <v>104319070.5324</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>182544600.72509</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>136585283.07305</v>
+        <v>134997620.35787</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>292596987.09263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>292645862.71626</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>294193777.533</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15945205.55416</v>
+        <v>15945246.55756</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>18287007.78183</v>
+        <v>18348709.00341</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>31250933.44894</v>
+        <v>31260729.85515999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>23248063.42188</v>
+        <v>23306429.66632</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>33058228.72975</v>
+        <v>33342282.9205</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>32100929.52527</v>
+        <v>33138607.82918</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>35195428.44353</v>
+        <v>38642216.34931</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>49572433.17641</v>
+        <v>50904038.2154</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>61847211.25717999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>74370446.55682999</v>
+        <v>74566161.13639</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>77986909.64901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>79658591.46129</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>86308728.654</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>892836.41059</v>
+        <v>892836.4105899999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>895948.0509400001</v>
+        <v>896394.1772200001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1634830.7332</v>
+        <v>1635894.44556</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1278843.95944</v>
+        <v>1280668.77065</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1821994.47029</v>
+        <v>1867387.12134</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1204134.91599</v>
+        <v>1272352.02633</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1315385.51753</v>
+        <v>1421647.32093</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1707003.21424</v>
+        <v>1736389.04136</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2186432.38851</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6517162.100569999</v>
+        <v>6535197.325449998</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2329703.57876</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2344869.14539</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3677282.632</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15052369.14357</v>
+        <v>15052410.14697</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17391059.73089</v>
+        <v>17452314.82619</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29616102.71574</v>
+        <v>29624835.4096</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>21969219.46244</v>
+        <v>22025760.89567</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>31236234.25946</v>
+        <v>31474895.79916</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>30896794.60928</v>
+        <v>31866255.80285</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>33880042.926</v>
+        <v>37220569.02838</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>47865429.96217</v>
+        <v>49167649.17404</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>59660778.86867001</v>
+        <v>59660778.86867</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>67853284.45626</v>
+        <v>68030963.81094</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>75657206.07025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>77313722.3159</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>82631446.022</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>17373820.46464</v>
+        <v>17373845.10975</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>20052825.94557</v>
+        <v>20112808.10806</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>62460885.82134</v>
+        <v>62487017.11324</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>22586155.66978</v>
+        <v>22646262.44084</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>30981019.04352</v>
+        <v>31529554.43526</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>39683951.33092</v>
+        <v>41370167.57921</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>28964262.07266</v>
+        <v>31802927.15665999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>58873575.96759999</v>
+        <v>59682523.197</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>42165611.43828</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>72863371.03585</v>
+        <v>73285959.84387</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>63750538.64145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>64277753.19744001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>78094498.499</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3279664.31831</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2752449.3016</v>
+        <v>2752664.19499</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2819863.51762</v>
+        <v>2820054.14097</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3423653.72678</v>
+        <v>3431084.35406</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3321988.92409</v>
+        <v>3369216.18746</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3718571.28352</v>
+        <v>3783078.175490001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3434790.29284</v>
+        <v>4555743.96468</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4759667.6065</v>
+        <v>4853931.99541</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5604171.369379999</v>
+        <v>5604171.36938</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6399641.51809</v>
+        <v>6428758.14725</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8641362.91382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8660709.29886</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10195399.629</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2497438.38927</v>
+        <v>2497439.75796</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3692365.52232</v>
+        <v>3699220.04692</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6023394.13558</v>
+        <v>6024636.62142</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2557006.56013</v>
+        <v>2568825.63126</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3503721.01145</v>
+        <v>3604132.85742</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3367468.28462</v>
+        <v>3659912.19944</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3977606.38941</v>
+        <v>4263148.59879</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4143309.05268</v>
+        <v>4204317.04763</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4225223.942220001</v>
+        <v>4225223.94222</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5071087.09275</v>
+        <v>5083494.12492</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6004716.79867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6033733.410979999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6281217.453</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>11596717.75706</v>
+        <v>11596741.03348</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>13608011.12165</v>
+        <v>13660923.86615</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>53617628.16814</v>
+        <v>53642326.35085</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>16605495.38287</v>
+        <v>16646352.45552</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>24155309.10797999</v>
+        <v>24556205.39038</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>32597911.76278</v>
+        <v>33927177.20428</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21551865.39041</v>
+        <v>22984034.59319</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>49970599.30842</v>
+        <v>50624274.15396</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>32336216.12668</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>61392642.42501</v>
+        <v>61773707.5717</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>49104458.92896001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>49583310.4876</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61617881.417</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>65804534.47244</v>
+        <v>65803885.57896001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>84735567.10401</v>
+        <v>84936564.03614999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>44403320.90056999</v>
+        <v>44402539.70739</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>107465723.48578</v>
+        <v>107784308.22347</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>80076168.83094001</v>
+        <v>79759206.14001001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>103150133.75705</v>
+        <v>106307167.9106</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>105093653.34454</v>
+        <v>116959642.93084</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>91558668.32559</v>
+        <v>95540585.55080003</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>202226200.54399</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>138092358.59403</v>
+        <v>136277821.65039</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>306833358.10019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>308026700.98011</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>302408007.688</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12300478.4257</v>
+        <v>12300487.34436</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>16342081.00267</v>
+        <v>16388942.25927</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>18470026.89376</v>
+        <v>18480653.04098</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>19870446.25536</v>
+        <v>19912048.36956</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>21468074.31835</v>
+        <v>21589784.32448</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>23242505.17765</v>
+        <v>23667950.62421</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25881753.12257</v>
+        <v>27478398.44044</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>28834534.1958</v>
+        <v>29580556.05940999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>37750050.15411</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>53170012.91097</v>
+        <v>53310069.51598001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>57499722.16146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>58057043.9613</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>80760091.98199999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>53504056.04674</v>
+        <v>53503398.23460001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>68393486.10134001</v>
+        <v>68547621.77688001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>25933294.00681</v>
+        <v>25921886.66641</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>87595277.23041999</v>
+        <v>87872259.85391</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>58608094.51258999</v>
+        <v>58169421.81553</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>79907628.57939999</v>
+        <v>82639217.28639001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>79211900.22197001</v>
+        <v>89481244.49039999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>62724134.12978999</v>
+        <v>65960029.49139</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>164476150.38988</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>84922345.68305999</v>
+        <v>82967752.13441001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>249333635.93873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>249969657.01881</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>221647915.706</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>557912</v>
+        <v>557925</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>579637</v>
+        <v>579683</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>600169</v>
+        <v>600354</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>602589</v>
+        <v>603390</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>610891</v>
+        <v>612704</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>625269</v>
+        <v>628474</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>646919</v>
+        <v>655179</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>676952</v>
+        <v>682004</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>721503</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>713883</v>
+        <v>764380</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>730221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>805083</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>860382</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>